--- a/biology/Médecine/Classe_ATC_D06/Classe_ATC_D06.xlsx
+++ b/biology/Médecine/Classe_ATC_D06/Classe_ATC_D06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D06, dénommée « Antibiotiques et agents chimiothérapeutiques à usage dermatologique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD06[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D06, dénommée « Antibiotiques et agents chimiothérapeutiques à usage dermatologique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD06. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D06AA Tétracyclines et dérivés
-D06AA01 Déméclocycline
+          <t>D06AA Tétracyclines et dérivés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D06AA01 Déméclocycline
 D06AA02 Chlortétracycline
 D06AA03 Oxytétracycline
 D06AA04 Tétracycline
 « QD06AA52 » Chlortétracycline, associations
 « QD06AA53 » Oxytétracycline, associations
-« QD06AA54 » Tétracycline, associations
-D06AX Autres antibiotiques à usage topique
-D06AX01 Acide fusidique
+« QD06AA54 » Tétracycline, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D06A Antibiotiques à usage topique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D06AX Autres antibiotiques à usage topique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D06AX01 Acide fusidique
 D06AX02 Chloramphénicol
 D06AX04 Néomycine
 D06AX05 Bacitracine
@@ -538,34 +589,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Classe_ATC_D06</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_D06</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>D06B Agents chimiothérapeutiques à usage topique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D06BA Sulfamides
-D06BA01 Sulfadiazine d'argent
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D06BA Sulfamides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D06BA01 Sulfadiazine d'argent
 D06BA02 Sulfathiazole (en)
 D06BA03 Mafénide (en)
 D06BA04 Sulfaméthizole (en)
@@ -575,9 +631,43 @@
 D06BA51 Sulfadiazine d'argent en association
 « QD06BA53 » Mafénide en association
 « QD06BA90 » Formosulfathiazole
-« QD06BA99 » Sulfamides, association
-D06BB Antiviraux
-D06BB01 Idoxuridine (en)
+« QD06BA99 » Sulfamides, association</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D06B Agents chimiothérapeutiques à usage topique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D06BB Antiviraux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D06BB01 Idoxuridine (en)
 D06BB02 Tromantadine (en)
 D06BB03 Aciclovir
 D06BB04 Podophyllotoxine
@@ -589,38 +679,74 @@
 D06BB10 Imiquimod
 D06BB11 Docosanol
 D06BB12 Sinécatechines
-D06BB53 Aciclovir, associations
-D06BX Autres agents chimiothérapeutiques
-D06BX01 Métronidazole
+D06BB53 Aciclovir, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D06B Agents chimiothérapeutiques à usage topique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D06BX Autres agents chimiothérapeutiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D06BX01 Métronidazole
 D06BX02 Mébutate d'ingénol (en)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Classe_ATC_D06</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_D06</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>D06C Antibiotiques et agents chimiothérapeutiques, associations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Groupe vide</t>
         </is>
